--- a/data_excel/507.xlsx
+++ b/data_excel/507.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\前400題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -114,11 +114,11 @@
     <t>。</t>
   </si>
   <si>
-    <t>-</t>
+    <t>+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-</t>
+    <t>+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -501,7 +501,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" activeCellId="1" sqref="C15 C9"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/data_excel/507.xlsx
+++ b/data_excel/507.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\前400題example excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -114,11 +114,11 @@
     <t>。</t>
   </si>
   <si>
-    <t>+</t>
+    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>+</t>
+    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -501,7 +501,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C9" activeCellId="1" sqref="C15 C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/data_excel/507.xlsx
+++ b/data_excel/507.xlsx
@@ -33,9 +33,6 @@
     <t>剩下</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
     <t>=</t>
   </si>
   <si>
@@ -119,6 +116,10 @@
   </si>
   <si>
     <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -501,12 +502,12 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -519,106 +520,106 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
         <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -629,59 +630,59 @@
     </row>
     <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
         <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
         <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -692,54 +693,54 @@
     </row>
     <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
         <v>12</v>
       </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
         <v>18</v>
-      </c>
-      <c r="C17" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
         <v>14</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>15</v>
-      </c>
-      <c r="C18" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/data_excel/507.xlsx
+++ b/data_excel/507.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
   <si>
     <t>媽媽</t>
   </si>
@@ -120,6 +120,10 @@
   </si>
   <si>
     <t>left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -502,7 +506,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -632,8 +636,8 @@
       <c r="A9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s">
-        <v>6</v>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>30</v>
@@ -695,8 +699,8 @@
       <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="B15" t="s">
-        <v>6</v>
+      <c r="B15" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>31</v>
